--- a/LifeExpect_birth.xlsx
+++ b/LifeExpect_birth.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoseManuel/Documents/Evans/VAforPM/Guided_1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uppyk\Documents\5th quarter(23win)\W543 Visual Analytics For Policy And Management\Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5348BC7F-2AB9-EF4F-A9F7-DF46567D34C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8686FA96-9070-4C7D-8796-2C15AE5970A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{8D41EBA1-87D8-F640-B64A-8A478DD8A495}"/>
+    <workbookView xWindow="340" yWindow="460" windowWidth="18170" windowHeight="13760" xr2:uid="{8D41EBA1-87D8-F640-B64A-8A478DD8A495}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,17 +23,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -41,7 +30,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{80FE37AD-06EC-4947-89ED-80F532777F41}" name="export" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/JoseManuel/Downloads/export.csv" comma="1">
+    <textPr sourceFile="/Users/JoseManuel/Downloads/export.csv" comma="1">
       <textFields count="6">
         <textField/>
         <textField/>
@@ -1469,12 +1458,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1502,7 +1498,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1522,7 +1518,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1810,7 +1806,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1821,19 +1817,19 @@
   <dimension ref="A1:E228"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="B182" sqref="B1:B1048576"/>
+      <selection activeCell="A183" sqref="A183"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.15234375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.15234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1850,7 +1846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1867,7 +1863,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1884,7 +1880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1901,7 +1897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1918,7 +1914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1935,7 +1931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1952,7 +1948,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1969,7 +1965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1986,7 +1982,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -2003,7 +1999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -2020,7 +2016,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -2037,7 +2033,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -2054,7 +2050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -2071,7 +2067,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -2088,7 +2084,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -2105,7 +2101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -2122,7 +2118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -2139,7 +2135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -2156,7 +2152,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -2173,7 +2169,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -2190,7 +2186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -2207,7 +2203,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -2224,7 +2220,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -2241,7 +2237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -2258,7 +2254,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -2275,7 +2271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -2292,7 +2288,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -2309,7 +2305,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -2326,7 +2322,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -2343,7 +2339,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -2360,7 +2356,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -2377,7 +2373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A33" t="s">
         <v>73</v>
       </c>
@@ -2394,7 +2390,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A34" t="s">
         <v>75</v>
       </c>
@@ -2411,7 +2407,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -2428,7 +2424,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -2445,7 +2441,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A37" t="s">
         <v>81</v>
       </c>
@@ -2462,7 +2458,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
         <v>83</v>
       </c>
@@ -2479,7 +2475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
         <v>85</v>
       </c>
@@ -2496,7 +2492,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
         <v>87</v>
       </c>
@@ -2513,7 +2509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A41" t="s">
         <v>89</v>
       </c>
@@ -2530,7 +2526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A42" t="s">
         <v>91</v>
       </c>
@@ -2547,7 +2543,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A43" t="s">
         <v>93</v>
       </c>
@@ -2564,7 +2560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A44" t="s">
         <v>95</v>
       </c>
@@ -2581,7 +2577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A45" t="s">
         <v>97</v>
       </c>
@@ -2598,7 +2594,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A46" t="s">
         <v>99</v>
       </c>
@@ -2615,7 +2611,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A47" t="s">
         <v>101</v>
       </c>
@@ -2632,7 +2628,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A48" t="s">
         <v>103</v>
       </c>
@@ -2649,7 +2645,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A49" t="s">
         <v>105</v>
       </c>
@@ -2666,7 +2662,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
         <v>107</v>
       </c>
@@ -2683,7 +2679,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A51" t="s">
         <v>110</v>
       </c>
@@ -2700,7 +2696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A52" t="s">
         <v>112</v>
       </c>
@@ -2717,7 +2713,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A53" t="s">
         <v>114</v>
       </c>
@@ -2734,7 +2730,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
         <v>116</v>
       </c>
@@ -2751,7 +2747,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A55" t="s">
         <v>118</v>
       </c>
@@ -2768,7 +2764,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A56" t="s">
         <v>121</v>
       </c>
@@ -2785,7 +2781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
         <v>123</v>
       </c>
@@ -2802,7 +2798,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
         <v>125</v>
       </c>
@@ -2819,7 +2815,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A59" t="s">
         <v>127</v>
       </c>
@@ -2836,7 +2832,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
         <v>129</v>
       </c>
@@ -2853,7 +2849,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
         <v>131</v>
       </c>
@@ -2870,7 +2866,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
         <v>133</v>
       </c>
@@ -2887,7 +2883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
         <v>135</v>
       </c>
@@ -2904,7 +2900,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A64" t="s">
         <v>137</v>
       </c>
@@ -2921,7 +2917,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
         <v>139</v>
       </c>
@@ -2938,7 +2934,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A66" t="s">
         <v>141</v>
       </c>
@@ -2955,7 +2951,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A67" t="s">
         <v>143</v>
       </c>
@@ -2972,7 +2968,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A68" t="s">
         <v>145</v>
       </c>
@@ -2989,7 +2985,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A69" t="s">
         <v>147</v>
       </c>
@@ -3006,7 +3002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A70" t="s">
         <v>149</v>
       </c>
@@ -3023,7 +3019,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A71" t="s">
         <v>151</v>
       </c>
@@ -3040,7 +3036,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A72" t="s">
         <v>153</v>
       </c>
@@ -3057,7 +3053,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A73" t="s">
         <v>155</v>
       </c>
@@ -3074,7 +3070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A74" t="s">
         <v>157</v>
       </c>
@@ -3091,7 +3087,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A75" t="s">
         <v>159</v>
       </c>
@@ -3108,7 +3104,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A76" t="s">
         <v>161</v>
       </c>
@@ -3125,7 +3121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A77" t="s">
         <v>163</v>
       </c>
@@ -3142,7 +3138,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A78" t="s">
         <v>165</v>
       </c>
@@ -3159,7 +3155,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A79" t="s">
         <v>167</v>
       </c>
@@ -3176,7 +3172,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A80" t="s">
         <v>169</v>
       </c>
@@ -3193,7 +3189,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A81" t="s">
         <v>171</v>
       </c>
@@ -3210,7 +3206,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A82" t="s">
         <v>174</v>
       </c>
@@ -3227,7 +3223,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A83" t="s">
         <v>176</v>
       </c>
@@ -3244,7 +3240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A84" t="s">
         <v>178</v>
       </c>
@@ -3261,7 +3257,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A85" t="s">
         <v>180</v>
       </c>
@@ -3278,7 +3274,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A86" t="s">
         <v>182</v>
       </c>
@@ -3295,7 +3291,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A87" t="s">
         <v>184</v>
       </c>
@@ -3312,7 +3308,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A88" t="s">
         <v>186</v>
       </c>
@@ -3329,7 +3325,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A89" t="s">
         <v>188</v>
       </c>
@@ -3346,7 +3342,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A90" t="s">
         <v>190</v>
       </c>
@@ -3363,7 +3359,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A91" t="s">
         <v>192</v>
       </c>
@@ -3380,7 +3376,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A92" t="s">
         <v>194</v>
       </c>
@@ -3397,7 +3393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A93" t="s">
         <v>196</v>
       </c>
@@ -3414,7 +3410,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A94" t="s">
         <v>198</v>
       </c>
@@ -3431,7 +3427,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A95" t="s">
         <v>200</v>
       </c>
@@ -3448,7 +3444,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A96" t="s">
         <v>202</v>
       </c>
@@ -3465,7 +3461,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A97" t="s">
         <v>204</v>
       </c>
@@ -3482,7 +3478,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A98" t="s">
         <v>206</v>
       </c>
@@ -3499,7 +3495,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A99" t="s">
         <v>208</v>
       </c>
@@ -3516,7 +3512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A100" t="s">
         <v>210</v>
       </c>
@@ -3533,7 +3529,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A101" t="s">
         <v>212</v>
       </c>
@@ -3550,7 +3546,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A102" t="s">
         <v>214</v>
       </c>
@@ -3567,7 +3563,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A103" t="s">
         <v>216</v>
       </c>
@@ -3584,7 +3580,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A104" t="s">
         <v>218</v>
       </c>
@@ -3601,7 +3597,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A105" t="s">
         <v>220</v>
       </c>
@@ -3618,7 +3614,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A106" t="s">
         <v>222</v>
       </c>
@@ -3635,7 +3631,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A107" t="s">
         <v>224</v>
       </c>
@@ -3652,7 +3648,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A108" t="s">
         <v>226</v>
       </c>
@@ -3669,7 +3665,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A109" t="s">
         <v>228</v>
       </c>
@@ -3686,7 +3682,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A110" t="s">
         <v>230</v>
       </c>
@@ -3703,7 +3699,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A111" t="s">
         <v>232</v>
       </c>
@@ -3720,7 +3716,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A112" t="s">
         <v>234</v>
       </c>
@@ -3737,7 +3733,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A113" t="s">
         <v>236</v>
       </c>
@@ -3754,7 +3750,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A114" t="s">
         <v>238</v>
       </c>
@@ -3771,7 +3767,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A115" t="s">
         <v>240</v>
       </c>
@@ -3788,7 +3784,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A116" t="s">
         <v>242</v>
       </c>
@@ -3805,7 +3801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A117" t="s">
         <v>244</v>
       </c>
@@ -3822,7 +3818,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A118" t="s">
         <v>246</v>
       </c>
@@ -3839,7 +3835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A119" t="s">
         <v>248</v>
       </c>
@@ -3856,7 +3852,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A120" t="s">
         <v>250</v>
       </c>
@@ -3873,7 +3869,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A121" t="s">
         <v>252</v>
       </c>
@@ -3890,7 +3886,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A122" t="s">
         <v>254</v>
       </c>
@@ -3907,7 +3903,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A123" t="s">
         <v>256</v>
       </c>
@@ -3924,7 +3920,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A124" t="s">
         <v>258</v>
       </c>
@@ -3941,7 +3937,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A125" t="s">
         <v>260</v>
       </c>
@@ -3958,7 +3954,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A126" t="s">
         <v>262</v>
       </c>
@@ -3975,7 +3971,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A127" t="s">
         <v>265</v>
       </c>
@@ -3992,7 +3988,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A128" t="s">
         <v>267</v>
       </c>
@@ -4009,7 +4005,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A129" t="s">
         <v>269</v>
       </c>
@@ -4026,7 +4022,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A130" t="s">
         <v>271</v>
       </c>
@@ -4043,7 +4039,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A131" t="s">
         <v>273</v>
       </c>
@@ -4060,7 +4056,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A132" t="s">
         <v>275</v>
       </c>
@@ -4077,7 +4073,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A133" t="s">
         <v>277</v>
       </c>
@@ -4094,7 +4090,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A134" t="s">
         <v>279</v>
       </c>
@@ -4111,7 +4107,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A135" t="s">
         <v>281</v>
       </c>
@@ -4128,7 +4124,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A136" t="s">
         <v>283</v>
       </c>
@@ -4145,7 +4141,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A137" t="s">
         <v>285</v>
       </c>
@@ -4162,7 +4158,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A138" t="s">
         <v>287</v>
       </c>
@@ -4179,7 +4175,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A139" t="s">
         <v>289</v>
       </c>
@@ -4196,7 +4192,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A140" t="s">
         <v>291</v>
       </c>
@@ -4213,7 +4209,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A141" t="s">
         <v>293</v>
       </c>
@@ -4230,7 +4226,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A142" t="s">
         <v>295</v>
       </c>
@@ -4247,7 +4243,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A143" t="s">
         <v>297</v>
       </c>
@@ -4264,7 +4260,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A144" t="s">
         <v>299</v>
       </c>
@@ -4281,7 +4277,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A145" t="s">
         <v>301</v>
       </c>
@@ -4298,7 +4294,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A146" t="s">
         <v>303</v>
       </c>
@@ -4315,7 +4311,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A147" t="s">
         <v>305</v>
       </c>
@@ -4332,7 +4328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A148" t="s">
         <v>307</v>
       </c>
@@ -4349,7 +4345,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A149" t="s">
         <v>309</v>
       </c>
@@ -4366,7 +4362,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A150" t="s">
         <v>311</v>
       </c>
@@ -4383,7 +4379,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A151" t="s">
         <v>313</v>
       </c>
@@ -4400,7 +4396,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A152" t="s">
         <v>315</v>
       </c>
@@ -4417,7 +4413,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A153" t="s">
         <v>317</v>
       </c>
@@ -4434,7 +4430,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A154" t="s">
         <v>319</v>
       </c>
@@ -4451,7 +4447,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A155" t="s">
         <v>321</v>
       </c>
@@ -4468,7 +4464,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A156" t="s">
         <v>323</v>
       </c>
@@ -4485,7 +4481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A157" t="s">
         <v>325</v>
       </c>
@@ -4502,7 +4498,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A158" t="s">
         <v>327</v>
       </c>
@@ -4519,7 +4515,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A159" t="s">
         <v>329</v>
       </c>
@@ -4536,7 +4532,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A160" t="s">
         <v>331</v>
       </c>
@@ -4553,7 +4549,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A161" t="s">
         <v>333</v>
       </c>
@@ -4570,7 +4566,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A162" t="s">
         <v>335</v>
       </c>
@@ -4587,7 +4583,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A163" t="s">
         <v>337</v>
       </c>
@@ -4604,7 +4600,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A164" t="s">
         <v>339</v>
       </c>
@@ -4621,7 +4617,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A165" t="s">
         <v>341</v>
       </c>
@@ -4638,7 +4634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A166" t="s">
         <v>343</v>
       </c>
@@ -4655,7 +4651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A167" t="s">
         <v>345</v>
       </c>
@@ -4672,7 +4668,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A168" t="s">
         <v>347</v>
       </c>
@@ -4689,7 +4685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A169" t="s">
         <v>349</v>
       </c>
@@ -4706,7 +4702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A170" t="s">
         <v>351</v>
       </c>
@@ -4723,7 +4719,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A171" t="s">
         <v>353</v>
       </c>
@@ -4740,7 +4736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A172" t="s">
         <v>355</v>
       </c>
@@ -4757,7 +4753,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A173" t="s">
         <v>357</v>
       </c>
@@ -4774,7 +4770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A174" t="s">
         <v>359</v>
       </c>
@@ -4791,7 +4787,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A175" t="s">
         <v>361</v>
       </c>
@@ -4808,7 +4804,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A176" t="s">
         <v>363</v>
       </c>
@@ -4825,7 +4821,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A177" t="s">
         <v>365</v>
       </c>
@@ -4842,7 +4838,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A178" t="s">
         <v>367</v>
       </c>
@@ -4859,7 +4855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A179" t="s">
         <v>369</v>
       </c>
@@ -4876,7 +4872,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A180" t="s">
         <v>371</v>
       </c>
@@ -4893,7 +4889,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A181" t="s">
         <v>373</v>
       </c>
@@ -4910,7 +4906,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A182" t="s">
         <v>375</v>
       </c>
@@ -4927,7 +4923,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A183" t="s">
         <v>377</v>
       </c>
@@ -4944,7 +4940,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A184" t="s">
         <v>379</v>
       </c>
@@ -4961,7 +4957,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A185" t="s">
         <v>381</v>
       </c>
@@ -4978,7 +4974,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A186" t="s">
         <v>383</v>
       </c>
@@ -4995,7 +4991,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A187" t="s">
         <v>385</v>
       </c>
@@ -5012,7 +5008,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A188" t="s">
         <v>387</v>
       </c>
@@ -5029,7 +5025,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A189" t="s">
         <v>389</v>
       </c>
@@ -5046,7 +5042,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A190" t="s">
         <v>391</v>
       </c>
@@ -5063,7 +5059,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A191" t="s">
         <v>393</v>
       </c>
@@ -5080,7 +5076,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A192" t="s">
         <v>395</v>
       </c>
@@ -5097,7 +5093,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A193" t="s">
         <v>397</v>
       </c>
@@ -5114,7 +5110,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A194" t="s">
         <v>399</v>
       </c>
@@ -5131,7 +5127,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A195" t="s">
         <v>401</v>
       </c>
@@ -5148,7 +5144,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A196" t="s">
         <v>403</v>
       </c>
@@ -5165,7 +5161,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A197" t="s">
         <v>405</v>
       </c>
@@ -5182,7 +5178,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A198" t="s">
         <v>407</v>
       </c>
@@ -5199,7 +5195,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A199" t="s">
         <v>409</v>
       </c>
@@ -5216,7 +5212,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A200" t="s">
         <v>411</v>
       </c>
@@ -5233,7 +5229,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A201" t="s">
         <v>413</v>
       </c>
@@ -5250,7 +5246,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A202" t="s">
         <v>415</v>
       </c>
@@ -5267,7 +5263,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A203" t="s">
         <v>417</v>
       </c>
@@ -5284,7 +5280,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A204" t="s">
         <v>419</v>
       </c>
@@ -5301,7 +5297,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A205" t="s">
         <v>421</v>
       </c>
@@ -5318,7 +5314,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A206" t="s">
         <v>423</v>
       </c>
@@ -5335,7 +5331,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A207" t="s">
         <v>425</v>
       </c>
@@ -5352,7 +5348,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A208" t="s">
         <v>427</v>
       </c>
@@ -5369,7 +5365,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A209" t="s">
         <v>429</v>
       </c>
@@ -5386,7 +5382,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A210" t="s">
         <v>431</v>
       </c>
@@ -5403,7 +5399,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A211" t="s">
         <v>433</v>
       </c>
@@ -5420,7 +5416,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A212" t="s">
         <v>435</v>
       </c>
@@ -5437,7 +5433,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A213" t="s">
         <v>437</v>
       </c>
@@ -5454,7 +5450,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A214" t="s">
         <v>439</v>
       </c>
@@ -5471,7 +5467,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A215" t="s">
         <v>441</v>
       </c>
@@ -5488,7 +5484,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A216" t="s">
         <v>443</v>
       </c>
@@ -5505,7 +5501,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A217" t="s">
         <v>445</v>
       </c>
@@ -5522,7 +5518,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A218" t="s">
         <v>447</v>
       </c>
@@ -5539,7 +5535,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A219" t="s">
         <v>449</v>
       </c>
@@ -5556,7 +5552,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A220" t="s">
         <v>451</v>
       </c>
@@ -5573,7 +5569,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A221" t="s">
         <v>453</v>
       </c>
@@ -5590,7 +5586,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A222" t="s">
         <v>455</v>
       </c>
@@ -5607,7 +5603,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A223" t="s">
         <v>457</v>
       </c>
@@ -5624,7 +5620,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A224" t="s">
         <v>459</v>
       </c>
@@ -5641,7 +5637,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A225" t="s">
         <v>461</v>
       </c>
@@ -5658,7 +5654,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A226" t="s">
         <v>463</v>
       </c>
@@ -5675,7 +5671,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A227" t="s">
         <v>465</v>
       </c>
@@ -5692,7 +5688,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A228" t="s">
         <v>467</v>
       </c>
@@ -5710,6 +5706,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>